--- a/src/test/java/com/pack/testData/StatusEmployee.xlsx
+++ b/src/test/java/com/pack/testData/StatusEmployee.xlsx
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>002452</t>
+  </si>
+  <si>
+    <t>585213</t>
+  </si>
+  <si>
+    <t>987816</t>
+  </si>
+  <si>
+    <t>585278</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12" activeCellId="0"/>
+      <selection activeCell="A6" sqref="A6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,7 +623,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -637,7 +646,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -706,7 +715,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
